--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_64ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_64ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2927,28 +2927,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3984.466605112692</v>
+        <v>4130.643220276238</v>
       </c>
       <c r="AB2" t="n">
-        <v>5451.722991376025</v>
+        <v>5651.728285099925</v>
       </c>
       <c r="AC2" t="n">
-        <v>4931.418200620166</v>
+        <v>5112.335269820242</v>
       </c>
       <c r="AD2" t="n">
-        <v>3984466.605112692</v>
+        <v>4130643.220276238</v>
       </c>
       <c r="AE2" t="n">
-        <v>5451722.991376025</v>
+        <v>5651728.285099925</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.478669071743534e-07</v>
+        <v>1.198723399177112e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.45377604166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4931418.200620166</v>
+        <v>5112335.269820241</v>
       </c>
     </row>
     <row r="3">
@@ -3033,28 +3033,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1853.612504367255</v>
+        <v>1951.091968422109</v>
       </c>
       <c r="AB3" t="n">
-        <v>2536.194404087537</v>
+        <v>2669.570107297829</v>
       </c>
       <c r="AC3" t="n">
-        <v>2294.143569732625</v>
+        <v>2414.790083022501</v>
       </c>
       <c r="AD3" t="n">
-        <v>1853612.504367255</v>
+        <v>1951091.968422109</v>
       </c>
       <c r="AE3" t="n">
-        <v>2536194.404087537</v>
+        <v>2669570.107297829</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.024598852764282e-06</v>
+        <v>1.895776132377811e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.83235677083333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2294143.569732625</v>
+        <v>2414790.083022501</v>
       </c>
     </row>
     <row r="4">
@@ -3139,28 +3139,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1472.094603219743</v>
+        <v>1557.378466660919</v>
       </c>
       <c r="AB4" t="n">
-        <v>2014.184780355613</v>
+        <v>2130.873924774343</v>
       </c>
       <c r="AC4" t="n">
-        <v>1821.953811844567</v>
+        <v>1927.506308094216</v>
       </c>
       <c r="AD4" t="n">
-        <v>1472094.603219743</v>
+        <v>1557378.466660919</v>
       </c>
       <c r="AE4" t="n">
-        <v>2014184.780355613</v>
+        <v>2130873.924774343</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.171837087756926e-06</v>
+        <v>2.168205416208667e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.96875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1821953.811844567</v>
+        <v>1927506.308094216</v>
       </c>
     </row>
     <row r="5">
@@ -3245,28 +3245,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1317.488878066899</v>
+        <v>1390.577230402947</v>
       </c>
       <c r="AB5" t="n">
-        <v>1802.64640647828</v>
+        <v>1902.649114574998</v>
       </c>
       <c r="AC5" t="n">
-        <v>1630.604363474114</v>
+        <v>1721.062953464763</v>
       </c>
       <c r="AD5" t="n">
-        <v>1317488.878066899</v>
+        <v>1390577.230402947</v>
       </c>
       <c r="AE5" t="n">
-        <v>1802646.40647828</v>
+        <v>1902649.114574998</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.247930405143739e-06</v>
+        <v>2.308997975702736e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.177734375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1630604.363474114</v>
+        <v>1721062.953464763</v>
       </c>
     </row>
     <row r="6">
@@ -3351,28 +3351,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1204.208201005168</v>
+        <v>1277.381804687237</v>
       </c>
       <c r="AB6" t="n">
-        <v>1647.650786531661</v>
+        <v>1747.770139281028</v>
       </c>
       <c r="AC6" t="n">
-        <v>1490.401307957481</v>
+        <v>1580.965410198843</v>
       </c>
       <c r="AD6" t="n">
-        <v>1204208.201005168</v>
+        <v>1277381.804687237</v>
       </c>
       <c r="AE6" t="n">
-        <v>1647650.786531661</v>
+        <v>1747770.139281028</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.297414402953569e-06</v>
+        <v>2.400556327275566e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.71223958333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1490401.307957481</v>
+        <v>1580965.410198843</v>
       </c>
     </row>
     <row r="7">
@@ -3457,28 +3457,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1124.185179350793</v>
+        <v>1197.18819083227</v>
       </c>
       <c r="AB7" t="n">
-        <v>1538.15975793759</v>
+        <v>1638.04569891211</v>
       </c>
       <c r="AC7" t="n">
-        <v>1391.359949460805</v>
+        <v>1481.712916419515</v>
       </c>
       <c r="AD7" t="n">
-        <v>1124185.179350793</v>
+        <v>1197188.19083227</v>
       </c>
       <c r="AE7" t="n">
-        <v>1538159.75793759</v>
+        <v>1638045.69891211</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.333360325890898e-06</v>
+        <v>2.467065695870924e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.396484375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1391359.949460804</v>
+        <v>1481712.916419515</v>
       </c>
     </row>
     <row r="8">
@@ -3563,28 +3563,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1051.350968015627</v>
+        <v>1112.329060592569</v>
       </c>
       <c r="AB8" t="n">
-        <v>1438.50477677019</v>
+        <v>1521.937693197544</v>
       </c>
       <c r="AC8" t="n">
-        <v>1301.215899829376</v>
+        <v>1376.686095811738</v>
       </c>
       <c r="AD8" t="n">
-        <v>1051350.968015627</v>
+        <v>1112329.060592569</v>
       </c>
       <c r="AE8" t="n">
-        <v>1438504.77677019</v>
+        <v>1521937.693197544</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.363144090610399e-06</v>
+        <v>2.522173458421363e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.14908854166667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1301215.899829376</v>
+        <v>1376686.095811738</v>
       </c>
     </row>
     <row r="9">
@@ -3669,28 +3669,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1046.830572984061</v>
+        <v>1107.808665561003</v>
       </c>
       <c r="AB9" t="n">
-        <v>1432.319772862247</v>
+        <v>1515.752689289601</v>
       </c>
       <c r="AC9" t="n">
-        <v>1295.6211840137</v>
+        <v>1371.091379996061</v>
       </c>
       <c r="AD9" t="n">
-        <v>1046830.572984061</v>
+        <v>1107808.665561003</v>
       </c>
       <c r="AE9" t="n">
-        <v>1432319.772862247</v>
+        <v>1515752.689289601</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.362023698207158e-06</v>
+        <v>2.520100439140469e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.1572265625</v>
       </c>
       <c r="AH9" t="n">
-        <v>1295621.1840137</v>
+        <v>1371091.379996061</v>
       </c>
     </row>
     <row r="10">
@@ -3775,28 +3775,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1051.335073237422</v>
+        <v>1112.313165814363</v>
       </c>
       <c r="AB10" t="n">
-        <v>1438.483028833421</v>
+        <v>1521.915945260775</v>
       </c>
       <c r="AC10" t="n">
-        <v>1301.196227485169</v>
+        <v>1376.66642346753</v>
       </c>
       <c r="AD10" t="n">
-        <v>1051335.073237421</v>
+        <v>1112313.165814363</v>
       </c>
       <c r="AE10" t="n">
-        <v>1438483.028833421</v>
+        <v>1521915.945260775</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.362023698207158e-06</v>
+        <v>2.520100439140469e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.1572265625</v>
       </c>
       <c r="AH10" t="n">
-        <v>1301196.227485169</v>
+        <v>1376666.42346753</v>
       </c>
     </row>
   </sheetData>
@@ -4072,28 +4072,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2728.932794394118</v>
+        <v>2846.569915721291</v>
       </c>
       <c r="AB2" t="n">
-        <v>3733.846241308293</v>
+        <v>3894.802540491656</v>
       </c>
       <c r="AC2" t="n">
-        <v>3377.493196523801</v>
+        <v>3523.088052416683</v>
       </c>
       <c r="AD2" t="n">
-        <v>2728932.794394118</v>
+        <v>2846569.915721291</v>
       </c>
       <c r="AE2" t="n">
-        <v>3733846.241308292</v>
+        <v>3894802.540491655</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.971230653994403e-07</v>
+        <v>1.519439584566016e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.7216796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>3377493.196523801</v>
+        <v>3523088.052416683</v>
       </c>
     </row>
     <row r="3">
@@ -4178,28 +4178,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1465.226734027345</v>
+        <v>1547.572718956366</v>
       </c>
       <c r="AB3" t="n">
-        <v>2004.787858737569</v>
+        <v>2117.457268165916</v>
       </c>
       <c r="AC3" t="n">
-        <v>1813.453719237086</v>
+        <v>1915.370118362102</v>
       </c>
       <c r="AD3" t="n">
-        <v>1465226.734027345</v>
+        <v>1547572.718956366</v>
       </c>
       <c r="AE3" t="n">
-        <v>2004787.858737569</v>
+        <v>2117457.268165916</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.1485024076899e-06</v>
+        <v>2.189222840188356e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.68815104166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1813453.719237087</v>
+        <v>1915370.118362102</v>
       </c>
     </row>
     <row r="4">
@@ -4284,28 +4284,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1201.912673851393</v>
+        <v>1272.409695301676</v>
       </c>
       <c r="AB4" t="n">
-        <v>1644.509945008354</v>
+        <v>1740.967079865718</v>
       </c>
       <c r="AC4" t="n">
-        <v>1487.56022394096</v>
+        <v>1574.811625225976</v>
       </c>
       <c r="AD4" t="n">
-        <v>1201912.673851393</v>
+        <v>1272409.695301675</v>
       </c>
       <c r="AE4" t="n">
-        <v>1644509.945008354</v>
+        <v>1740967.079865718</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.280245514584948e-06</v>
+        <v>2.440345534160008e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.27864583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1487560.22394096</v>
+        <v>1574811.625225976</v>
       </c>
     </row>
     <row r="5">
@@ -4390,28 +4390,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1060.065713983497</v>
+        <v>1130.647986779801</v>
       </c>
       <c r="AB5" t="n">
-        <v>1450.428676670887</v>
+        <v>1547.002456180899</v>
       </c>
       <c r="AC5" t="n">
-        <v>1312.00179945885</v>
+        <v>1399.358712994577</v>
       </c>
       <c r="AD5" t="n">
-        <v>1060065.713983497</v>
+        <v>1130647.986779801</v>
       </c>
       <c r="AE5" t="n">
-        <v>1450428.676670887</v>
+        <v>1547002.456180899</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.350656603240734e-06</v>
+        <v>2.574559935850137e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.63899739583333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1312001.79945885</v>
+        <v>1399358.712994577</v>
       </c>
     </row>
     <row r="6">
@@ -4496,28 +4496,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>969.7316437087587</v>
+        <v>1040.14332430447</v>
       </c>
       <c r="AB6" t="n">
-        <v>1326.829616463075</v>
+        <v>1423.16998419824</v>
       </c>
       <c r="AC6" t="n">
-        <v>1200.198860084901</v>
+        <v>1287.344638337977</v>
       </c>
       <c r="AD6" t="n">
-        <v>969731.6437087588</v>
+        <v>1040143.32430447</v>
       </c>
       <c r="AE6" t="n">
-        <v>1326829.616463075</v>
+        <v>1423169.98419824</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.392188521103542e-06</v>
+        <v>2.653726181017153e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.29231770833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1200198.860084901</v>
+        <v>1287344.638337977</v>
       </c>
     </row>
     <row r="7">
@@ -4602,28 +4602,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>959.5954004864933</v>
+        <v>1030.007081082205</v>
       </c>
       <c r="AB7" t="n">
-        <v>1312.960761306881</v>
+        <v>1409.301129042046</v>
       </c>
       <c r="AC7" t="n">
-        <v>1187.653628999754</v>
+        <v>1274.79940725283</v>
       </c>
       <c r="AD7" t="n">
-        <v>959595.4004864933</v>
+        <v>1030007.081082205</v>
       </c>
       <c r="AE7" t="n">
-        <v>1312960.761306881</v>
+        <v>1409301.129042046</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.397307571444772e-06</v>
+        <v>2.663483881002855e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AH7" t="n">
-        <v>1187653.628999754</v>
+        <v>1274799.40725283</v>
       </c>
     </row>
   </sheetData>
@@ -4899,28 +4899,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1018.748859371744</v>
+        <v>1091.99295681008</v>
       </c>
       <c r="AB2" t="n">
-        <v>1393.897133420106</v>
+        <v>1494.112938836762</v>
       </c>
       <c r="AC2" t="n">
-        <v>1260.865547353404</v>
+        <v>1351.516896954861</v>
       </c>
       <c r="AD2" t="n">
-        <v>1018748.859371744</v>
+        <v>1091992.95681008</v>
       </c>
       <c r="AE2" t="n">
-        <v>1393897.133420106</v>
+        <v>1494112.938836762</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.283501339243394e-06</v>
+        <v>2.733521956521812e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.6669921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1260865.547353404</v>
+        <v>1351516.896954861</v>
       </c>
     </row>
     <row r="3">
@@ -5005,28 +5005,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>756.0605058575289</v>
+        <v>829.133921586722</v>
       </c>
       <c r="AB3" t="n">
-        <v>1034.47533914971</v>
+        <v>1134.457610321971</v>
       </c>
       <c r="AC3" t="n">
-        <v>935.7464646765181</v>
+        <v>1026.186568214098</v>
       </c>
       <c r="AD3" t="n">
-        <v>756060.5058575289</v>
+        <v>829133.9215867219</v>
       </c>
       <c r="AE3" t="n">
-        <v>1034475.33914971</v>
+        <v>1134457.610321971</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.470384479914151e-06</v>
+        <v>3.131534138284245e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.93033854166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>935746.4646765181</v>
+        <v>1026186.568214098</v>
       </c>
     </row>
   </sheetData>
@@ -5302,28 +5302,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1489.677099623224</v>
+        <v>1577.280875792234</v>
       </c>
       <c r="AB2" t="n">
-        <v>2038.241927619851</v>
+        <v>2158.105278980132</v>
       </c>
       <c r="AC2" t="n">
-        <v>1843.714978738324</v>
+        <v>1952.13874007405</v>
       </c>
       <c r="AD2" t="n">
-        <v>1489677.099623224</v>
+        <v>1577280.875792234</v>
       </c>
       <c r="AE2" t="n">
-        <v>2038241.927619851</v>
+        <v>2158105.278980132</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.08611475509787e-06</v>
+        <v>2.205188457108356e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.45084635416667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1843714.978738324</v>
+        <v>1952138.74007405</v>
       </c>
     </row>
     <row r="3">
@@ -5408,28 +5408,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>946.046600234482</v>
+        <v>1011.792125165663</v>
       </c>
       <c r="AB3" t="n">
-        <v>1294.422695071197</v>
+        <v>1384.378622769894</v>
       </c>
       <c r="AC3" t="n">
-        <v>1170.884809787264</v>
+        <v>1252.255470000335</v>
       </c>
       <c r="AD3" t="n">
-        <v>946046.600234482</v>
+        <v>1011792.125165663</v>
       </c>
       <c r="AE3" t="n">
-        <v>1294422.695071198</v>
+        <v>1384378.622769894</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.37996581376779e-06</v>
+        <v>2.801807699823261e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.16145833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1170884.809787264</v>
+        <v>1252255.470000335</v>
       </c>
     </row>
     <row r="4">
@@ -5514,28 +5514,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>824.6537343548675</v>
+        <v>890.4845106320697</v>
       </c>
       <c r="AB4" t="n">
-        <v>1128.327620499437</v>
+        <v>1218.400192850783</v>
       </c>
       <c r="AC4" t="n">
-        <v>1020.641616016732</v>
+        <v>1102.117788480514</v>
       </c>
       <c r="AD4" t="n">
-        <v>824653.7343548675</v>
+        <v>890484.5106320697</v>
       </c>
       <c r="AE4" t="n">
-        <v>1128327.620499437</v>
+        <v>1218400.192850783</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.452758391810233e-06</v>
+        <v>2.949601799948427e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.55110677083333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1020641.616016731</v>
+        <v>1102117.788480514</v>
       </c>
     </row>
     <row r="5">
@@ -5620,28 +5620,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>829.9035713181648</v>
+        <v>895.734347595367</v>
       </c>
       <c r="AB5" t="n">
-        <v>1135.510679039081</v>
+        <v>1225.583251390427</v>
       </c>
       <c r="AC5" t="n">
-        <v>1027.139133530838</v>
+        <v>1108.61530599462</v>
       </c>
       <c r="AD5" t="n">
-        <v>829903.5713181648</v>
+        <v>895734.347595367</v>
       </c>
       <c r="AE5" t="n">
-        <v>1135510.679039081</v>
+        <v>1225583.251390427</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.452655286175612e-06</v>
+        <v>2.949392459863264e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.552734375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1027139.133530838</v>
+        <v>1108615.305994621</v>
       </c>
     </row>
   </sheetData>
@@ -5917,28 +5917,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>731.384730005934</v>
+        <v>801.6248072303168</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000.712854011158</v>
+        <v>1096.818426443065</v>
       </c>
       <c r="AC2" t="n">
-        <v>905.2062237336443</v>
+        <v>992.1396152176683</v>
       </c>
       <c r="AD2" t="n">
-        <v>731384.730005934</v>
+        <v>801624.8072303168</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000712.854011158</v>
+        <v>1096818.426443065</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.448987947235668e-06</v>
+        <v>3.22661313631247e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.5732421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>905206.2237336442</v>
+        <v>992139.6152176682</v>
       </c>
     </row>
     <row r="3">
@@ -6023,28 +6023,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>721.6629658477386</v>
+        <v>781.856644283679</v>
       </c>
       <c r="AB3" t="n">
-        <v>987.4111073959502</v>
+        <v>1069.770753789677</v>
       </c>
       <c r="AC3" t="n">
-        <v>893.1739771462733</v>
+        <v>967.673334480672</v>
       </c>
       <c r="AD3" t="n">
-        <v>721662.9658477387</v>
+        <v>781856.644283679</v>
       </c>
       <c r="AE3" t="n">
-        <v>987411.1073959502</v>
+        <v>1069770.753789677</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.464434863938528e-06</v>
+        <v>3.261010402655547e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.44140625</v>
       </c>
       <c r="AH3" t="n">
-        <v>893173.9771462732</v>
+        <v>967673.334480672</v>
       </c>
     </row>
   </sheetData>
@@ -6320,28 +6320,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3000.631647932868</v>
+        <v>3131.195840681807</v>
       </c>
       <c r="AB2" t="n">
-        <v>4105.596599227484</v>
+        <v>4284.240287832251</v>
       </c>
       <c r="AC2" t="n">
-        <v>3713.764222038076</v>
+        <v>3875.358407730388</v>
       </c>
       <c r="AD2" t="n">
-        <v>3000631.647932868</v>
+        <v>3131195.840681807</v>
       </c>
       <c r="AE2" t="n">
-        <v>4105596.599227484</v>
+        <v>4284240.287832251</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.575140855549913e-07</v>
+        <v>1.432280111437422e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.56640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>3713764.222038076</v>
+        <v>3875358.407730388</v>
       </c>
     </row>
     <row r="3">
@@ -6426,28 +6426,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1555.789702218801</v>
+        <v>1650.636863130392</v>
       </c>
       <c r="AB3" t="n">
-        <v>2128.700107173298</v>
+        <v>2258.474177093959</v>
       </c>
       <c r="AC3" t="n">
-        <v>1925.539956594042</v>
+        <v>2042.928571420527</v>
       </c>
       <c r="AD3" t="n">
-        <v>1555789.702218801</v>
+        <v>1650636.863130392</v>
       </c>
       <c r="AE3" t="n">
-        <v>2128700.107173298</v>
+        <v>2258474.177093959</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.11540455382516e-06</v>
+        <v>2.108966406189067e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.96647135416667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1925539.956594042</v>
+        <v>2042928.571420527</v>
       </c>
     </row>
     <row r="4">
@@ -6532,28 +6532,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1269.528160711044</v>
+        <v>1340.706291330575</v>
       </c>
       <c r="AB4" t="n">
-        <v>1737.024437114482</v>
+        <v>1834.413495585625</v>
       </c>
       <c r="AC4" t="n">
-        <v>1571.245262765385</v>
+        <v>1659.339646182444</v>
       </c>
       <c r="AD4" t="n">
-        <v>1269528.160711044</v>
+        <v>1340706.291330575</v>
       </c>
       <c r="AE4" t="n">
-        <v>1737024.437114482</v>
+        <v>1834413.495585626</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.251037288122787e-06</v>
+        <v>2.365415852474995e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.45279947916667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1571245.262765385</v>
+        <v>1659339.646182444</v>
       </c>
     </row>
     <row r="5">
@@ -6638,28 +6638,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1123.532343312994</v>
+        <v>1194.795725278545</v>
       </c>
       <c r="AB5" t="n">
-        <v>1537.26651886958</v>
+        <v>1634.772221993373</v>
       </c>
       <c r="AC5" t="n">
-        <v>1390.551959875777</v>
+        <v>1478.751855543549</v>
       </c>
       <c r="AD5" t="n">
-        <v>1123532.343312994</v>
+        <v>1194795.725278545</v>
       </c>
       <c r="AE5" t="n">
-        <v>1537266.51886958</v>
+        <v>1634772.221993373</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.322538807191473e-06</v>
+        <v>2.500608326981408e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.77897135416667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1390551.959875777</v>
+        <v>1478751.855543549</v>
       </c>
     </row>
     <row r="6">
@@ -6744,28 +6744,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1025.95673081892</v>
+        <v>1097.049520583879</v>
       </c>
       <c r="AB6" t="n">
-        <v>1403.759261122978</v>
+        <v>1501.031552471924</v>
       </c>
       <c r="AC6" t="n">
-        <v>1269.786447429897</v>
+        <v>1357.775207815018</v>
       </c>
       <c r="AD6" t="n">
-        <v>1025956.73081892</v>
+        <v>1097049.520583879</v>
       </c>
       <c r="AE6" t="n">
-        <v>1403759.261122978</v>
+        <v>1501031.552471924</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.369249304253747e-06</v>
+        <v>2.588926837770069e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.37858072916667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1269786.447429897</v>
+        <v>1357775.207815018</v>
       </c>
     </row>
     <row r="7">
@@ -6850,28 +6850,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>982.0857055247621</v>
+        <v>1053.178495289721</v>
       </c>
       <c r="AB7" t="n">
-        <v>1343.732988862473</v>
+        <v>1441.005280211418</v>
       </c>
       <c r="AC7" t="n">
-        <v>1215.488998346532</v>
+        <v>1303.477758731653</v>
       </c>
       <c r="AD7" t="n">
-        <v>982085.7055247622</v>
+        <v>1053178.495289721</v>
       </c>
       <c r="AE7" t="n">
-        <v>1343732.988862473</v>
+        <v>1441005.280211418</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.386478585957044e-06</v>
+        <v>2.621503337651132e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.23697916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1215488.998346532</v>
+        <v>1303477.758731653</v>
       </c>
     </row>
     <row r="8">
@@ -6956,28 +6956,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>984.579215564544</v>
+        <v>1055.672005329503</v>
       </c>
       <c r="AB8" t="n">
-        <v>1347.144719304801</v>
+        <v>1444.417010653747</v>
       </c>
       <c r="AC8" t="n">
-        <v>1218.575118023839</v>
+        <v>1306.563878408959</v>
       </c>
       <c r="AD8" t="n">
-        <v>984579.2155645441</v>
+        <v>1055672.005329503</v>
       </c>
       <c r="AE8" t="n">
-        <v>1347144.719304801</v>
+        <v>1444417.010653747</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.388010077664004e-06</v>
+        <v>2.624399026529449e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.22395833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1218575.118023839</v>
+        <v>1306563.878408959</v>
       </c>
     </row>
   </sheetData>
@@ -7253,28 +7253,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>693.0878097655303</v>
+        <v>761.5995918045501</v>
       </c>
       <c r="AB2" t="n">
-        <v>948.3133181973585</v>
+        <v>1042.05416090965</v>
       </c>
       <c r="AC2" t="n">
-        <v>857.8076260747034</v>
+        <v>942.6019743246325</v>
       </c>
       <c r="AD2" t="n">
-        <v>693087.8097655303</v>
+        <v>761599.59180455</v>
       </c>
       <c r="AE2" t="n">
-        <v>948313.3181973585</v>
+        <v>1042054.16090965</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.443691324661131e-06</v>
+        <v>3.309758725560291e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.91341145833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>857807.6260747034</v>
+        <v>942601.9743246324</v>
       </c>
     </row>
   </sheetData>
@@ -7550,28 +7550,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2043.895200408848</v>
+        <v>2146.282224208169</v>
       </c>
       <c r="AB2" t="n">
-        <v>2796.547583491728</v>
+        <v>2936.638026450655</v>
       </c>
       <c r="AC2" t="n">
-        <v>2529.649007102461</v>
+        <v>2656.36941480356</v>
       </c>
       <c r="AD2" t="n">
-        <v>2043895.200408848</v>
+        <v>2146282.224208169</v>
       </c>
       <c r="AE2" t="n">
-        <v>2796547.583491728</v>
+        <v>2936638.026450654</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.288577063168019e-07</v>
+        <v>1.820548267628567e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.43815104166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2529649.007102462</v>
+        <v>2656369.41480356</v>
       </c>
     </row>
     <row r="3">
@@ -7656,28 +7656,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1196.890475700261</v>
+        <v>1276.572169512288</v>
       </c>
       <c r="AB3" t="n">
-        <v>1637.63835193423</v>
+        <v>1746.662360716079</v>
       </c>
       <c r="AC3" t="n">
-        <v>1481.344446065489</v>
+        <v>1579.963356465356</v>
       </c>
       <c r="AD3" t="n">
-        <v>1196890.475700261</v>
+        <v>1276572.169512288</v>
       </c>
       <c r="AE3" t="n">
-        <v>1637638.35193423</v>
+        <v>1746662.360716079</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.254962988468094e-06</v>
+        <v>2.459710113891564e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.9052734375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1481344.446065489</v>
+        <v>1579963.356465356</v>
       </c>
     </row>
     <row r="4">
@@ -7762,28 +7762,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>986.6491242158704</v>
+        <v>1055.020868215812</v>
       </c>
       <c r="AB4" t="n">
-        <v>1349.97685963947</v>
+        <v>1443.526096128653</v>
       </c>
       <c r="AC4" t="n">
-        <v>1221.136962859902</v>
+        <v>1305.757991515734</v>
       </c>
       <c r="AD4" t="n">
-        <v>986649.1242158704</v>
+        <v>1055020.868215812</v>
       </c>
       <c r="AE4" t="n">
-        <v>1349976.85963947</v>
+        <v>1443526.096128653</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.37427950763178e-06</v>
+        <v>2.693568842505947e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.78548177083333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1221136.962859902</v>
+        <v>1305757.991515734</v>
       </c>
     </row>
     <row r="5">
@@ -7868,28 +7868,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>892.1456264417225</v>
+        <v>960.3467782410723</v>
       </c>
       <c r="AB5" t="n">
-        <v>1220.673004784807</v>
+        <v>1313.988829499143</v>
       </c>
       <c r="AC5" t="n">
-        <v>1104.173686433467</v>
+        <v>1188.583579806649</v>
       </c>
       <c r="AD5" t="n">
-        <v>892145.6264417225</v>
+        <v>960346.7782410723</v>
       </c>
       <c r="AE5" t="n">
-        <v>1220673.004784807</v>
+        <v>1313988.829499143</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.424832294733658e-06</v>
+        <v>2.792651606589438e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.3671875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1104173.686433467</v>
+        <v>1188583.579806649</v>
       </c>
     </row>
     <row r="6">
@@ -7974,28 +7974,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>896.6350451969554</v>
+        <v>964.8361969963051</v>
       </c>
       <c r="AB6" t="n">
-        <v>1226.815625584894</v>
+        <v>1320.13145029923</v>
       </c>
       <c r="AC6" t="n">
-        <v>1109.730064125616</v>
+        <v>1194.139957498798</v>
       </c>
       <c r="AD6" t="n">
-        <v>896635.0451969554</v>
+        <v>964836.1969963051</v>
       </c>
       <c r="AE6" t="n">
-        <v>1226815.625584894</v>
+        <v>1320131.450299229</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.425628401617153e-06</v>
+        <v>2.794211965078942e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.36067708333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1109730.064125616</v>
+        <v>1194139.957498798</v>
       </c>
     </row>
   </sheetData>
@@ -8271,28 +8271,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2478.980738415971</v>
+        <v>2595.354170221446</v>
       </c>
       <c r="AB2" t="n">
-        <v>3391.850811212516</v>
+        <v>3551.078074642244</v>
       </c>
       <c r="AC2" t="n">
-        <v>3068.137330282777</v>
+        <v>3212.168167167634</v>
       </c>
       <c r="AD2" t="n">
-        <v>2478980.738415971</v>
+        <v>2595354.170221446</v>
       </c>
       <c r="AE2" t="n">
-        <v>3391850.811212516</v>
+        <v>3551078.074642244</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.387231049120222e-07</v>
+        <v>1.612615498119725e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.92252604166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3068137.330282778</v>
+        <v>3212168.167167634</v>
       </c>
     </row>
     <row r="3">
@@ -8377,28 +8377,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1380.024360218227</v>
+        <v>1461.374908879667</v>
       </c>
       <c r="AB3" t="n">
-        <v>1888.210212028489</v>
+        <v>1999.517621639983</v>
       </c>
       <c r="AC3" t="n">
-        <v>1708.002079512166</v>
+        <v>1808.68646617127</v>
       </c>
       <c r="AD3" t="n">
-        <v>1380024.360218227</v>
+        <v>1461374.908879667</v>
       </c>
       <c r="AE3" t="n">
-        <v>1888210.212028489</v>
+        <v>1999517.621639983</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.181447089307018e-06</v>
+        <v>2.271571958930098e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.4326171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1708002.079512166</v>
+        <v>1808686.46617127</v>
       </c>
     </row>
     <row r="4">
@@ -8483,28 +8483,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1134.167121731476</v>
+        <v>1203.957133981483</v>
       </c>
       <c r="AB4" t="n">
-        <v>1551.817491875059</v>
+        <v>1647.307265553559</v>
       </c>
       <c r="AC4" t="n">
-        <v>1403.714208440031</v>
+        <v>1490.090572139395</v>
       </c>
       <c r="AD4" t="n">
-        <v>1134167.121731476</v>
+        <v>1203957.133981483</v>
       </c>
       <c r="AE4" t="n">
-        <v>1551817.491875059</v>
+        <v>1647307.265553559</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.310151402081242e-06</v>
+        <v>2.519032137669698e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.11263020833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1403714.208440031</v>
+        <v>1490090.572139395</v>
       </c>
     </row>
     <row r="5">
@@ -8589,28 +8589,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>997.1885288129889</v>
+        <v>1067.063792409016</v>
       </c>
       <c r="AB5" t="n">
-        <v>1364.397337974963</v>
+        <v>1460.003756306113</v>
       </c>
       <c r="AC5" t="n">
-        <v>1234.181170982323</v>
+        <v>1320.663046932399</v>
       </c>
       <c r="AD5" t="n">
-        <v>997188.5288129889</v>
+        <v>1067063.792409016</v>
       </c>
       <c r="AE5" t="n">
-        <v>1364397.337974963</v>
+        <v>1460003.756306113</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.378696198960241e-06</v>
+        <v>2.650823429831773e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.51041666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1234181.170982323</v>
+        <v>1320663.046932399</v>
       </c>
     </row>
     <row r="6">
@@ -8695,28 +8695,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>936.9068957621961</v>
+        <v>1006.611567157631</v>
       </c>
       <c r="AB6" t="n">
-        <v>1281.917348196912</v>
+        <v>1377.290354753216</v>
       </c>
       <c r="AC6" t="n">
-        <v>1159.572955667296</v>
+        <v>1245.843696334721</v>
       </c>
       <c r="AD6" t="n">
-        <v>936906.895762196</v>
+        <v>1006611.567157631</v>
       </c>
       <c r="AE6" t="n">
-        <v>1281917.348196912</v>
+        <v>1377290.354753216</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.406192120325643e-06</v>
+        <v>2.703689922562505e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.28580729166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1159572.955667296</v>
+        <v>1245843.696334721</v>
       </c>
     </row>
     <row r="7">
@@ -8801,28 +8801,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>941.5854515049909</v>
+        <v>1011.290122900426</v>
       </c>
       <c r="AB7" t="n">
-        <v>1288.318754567516</v>
+        <v>1383.691761123819</v>
       </c>
       <c r="AC7" t="n">
-        <v>1165.36342079832</v>
+        <v>1251.634161465745</v>
       </c>
       <c r="AD7" t="n">
-        <v>941585.4515049909</v>
+        <v>1011290.122900426</v>
       </c>
       <c r="AE7" t="n">
-        <v>1288318.754567516</v>
+        <v>1383691.761123819</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.40580210725663e-06</v>
+        <v>2.702940043232991e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.2890625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1165363.42079832</v>
+        <v>1251634.161465745</v>
       </c>
     </row>
   </sheetData>
@@ -9098,28 +9098,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3625.016694210598</v>
+        <v>3757.952852697642</v>
       </c>
       <c r="AB2" t="n">
-        <v>4959.907765468871</v>
+        <v>5141.796882240256</v>
       </c>
       <c r="AC2" t="n">
-        <v>4486.541129606605</v>
+        <v>4651.0710043563</v>
       </c>
       <c r="AD2" t="n">
-        <v>3625016.694210598</v>
+        <v>3757952.852697642</v>
       </c>
       <c r="AE2" t="n">
-        <v>4959907.765468871</v>
+        <v>5141796.882240256</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.828796108627967e-07</v>
+        <v>1.272152921060723e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.43001302083333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4486541.129606605</v>
+        <v>4651071.0043563</v>
       </c>
     </row>
     <row r="3">
@@ -9204,28 +9204,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1752.459578278265</v>
+        <v>1849.11708093865</v>
       </c>
       <c r="AB3" t="n">
-        <v>2397.792508060434</v>
+        <v>2530.043567428436</v>
       </c>
       <c r="AC3" t="n">
-        <v>2168.950556414067</v>
+        <v>2288.579760291514</v>
       </c>
       <c r="AD3" t="n">
-        <v>1752459.578278265</v>
+        <v>1849117.08093865</v>
       </c>
       <c r="AE3" t="n">
-        <v>2397792.508060434</v>
+        <v>2530043.567428436</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.054811835522357e-06</v>
+        <v>1.965034445872186e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.521484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>2168950.556414067</v>
+        <v>2288579.760291514</v>
       </c>
     </row>
     <row r="4">
@@ -9310,28 +9310,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1406.14561016313</v>
+        <v>1490.710257384146</v>
       </c>
       <c r="AB4" t="n">
-        <v>1923.950458591321</v>
+        <v>2039.655539648048</v>
       </c>
       <c r="AC4" t="n">
-        <v>1740.331327104793</v>
+        <v>1844.993677618567</v>
       </c>
       <c r="AD4" t="n">
-        <v>1406145.61016313</v>
+        <v>1490710.257384145</v>
       </c>
       <c r="AE4" t="n">
-        <v>1923950.458591321</v>
+        <v>2039655.539648048</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.196262780275222e-06</v>
+        <v>2.228546827398408e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.80436197916667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1740331.327104793</v>
+        <v>1844993.677618567</v>
       </c>
     </row>
     <row r="5">
@@ -9416,28 +9416,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1253.496241244127</v>
+        <v>1325.968122534324</v>
       </c>
       <c r="AB5" t="n">
-        <v>1715.088857621476</v>
+        <v>1814.248082836476</v>
       </c>
       <c r="AC5" t="n">
-        <v>1551.403184192411</v>
+        <v>1641.098792123739</v>
       </c>
       <c r="AD5" t="n">
-        <v>1253496.241244127</v>
+        <v>1325968.122534324</v>
       </c>
       <c r="AE5" t="n">
-        <v>1715088.857621476</v>
+        <v>1814248.082836476</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.27362317720593e-06</v>
+        <v>2.372663379370832e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.02799479166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1551403.184192411</v>
+        <v>1641098.792123739</v>
       </c>
     </row>
     <row r="6">
@@ -9522,28 +9522,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1145.633124618583</v>
+        <v>1218.190257254801</v>
       </c>
       <c r="AB6" t="n">
-        <v>1567.505782869545</v>
+        <v>1666.781652737195</v>
       </c>
       <c r="AC6" t="n">
-        <v>1417.905230960659</v>
+        <v>1507.706351142698</v>
       </c>
       <c r="AD6" t="n">
-        <v>1145633.124618583</v>
+        <v>1218190.257254801</v>
       </c>
       <c r="AE6" t="n">
-        <v>1567505.782869545</v>
+        <v>1666781.652737195</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.320585267313501e-06</v>
+        <v>2.460150191334628e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.59993489583333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1417905.230960659</v>
+        <v>1507706.351142698</v>
       </c>
     </row>
     <row r="7">
@@ -9628,28 +9628,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1065.660088211172</v>
+        <v>1138.046628646797</v>
       </c>
       <c r="AB7" t="n">
-        <v>1458.083146295565</v>
+        <v>1557.125604388367</v>
       </c>
       <c r="AC7" t="n">
-        <v>1318.925737245664</v>
+        <v>1408.515722145052</v>
       </c>
       <c r="AD7" t="n">
-        <v>1065660.088211172</v>
+        <v>1138046.628646798</v>
       </c>
       <c r="AE7" t="n">
-        <v>1458083.146295565</v>
+        <v>1557125.604388367</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.354842182742671e-06</v>
+        <v>2.523968226514631e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.30533854166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1318925.737245664</v>
+        <v>1408515.722145052</v>
       </c>
     </row>
     <row r="8">
@@ -9734,28 +9734,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1027.491574457588</v>
+        <v>1087.955941162986</v>
       </c>
       <c r="AB8" t="n">
-        <v>1405.859301901925</v>
+        <v>1488.589315927848</v>
       </c>
       <c r="AC8" t="n">
-        <v>1271.686063264327</v>
+        <v>1346.52044086392</v>
       </c>
       <c r="AD8" t="n">
-        <v>1027491.574457588</v>
+        <v>1087955.941162986</v>
       </c>
       <c r="AE8" t="n">
-        <v>1405859.301901925</v>
+        <v>1488589.315927848</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.368112031851223e-06</v>
+        <v>2.548688948933258e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.1962890625</v>
       </c>
       <c r="AH8" t="n">
-        <v>1271686.063264327</v>
+        <v>1346520.44086392</v>
       </c>
     </row>
     <row r="9">
@@ -9840,28 +9840,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1032.179468947269</v>
+        <v>1092.643835652668</v>
       </c>
       <c r="AB9" t="n">
-        <v>1412.273485958015</v>
+        <v>1495.003499983938</v>
       </c>
       <c r="AC9" t="n">
-        <v>1277.488086596468</v>
+        <v>1352.322464196061</v>
       </c>
       <c r="AD9" t="n">
-        <v>1032179.468947269</v>
+        <v>1092643.835652668</v>
       </c>
       <c r="AE9" t="n">
-        <v>1412273.485958016</v>
+        <v>1495003.499983938</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.367547357421072e-06</v>
+        <v>2.547637003298423e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.201171875</v>
       </c>
       <c r="AH9" t="n">
-        <v>1277488.086596468</v>
+        <v>1352322.464196061</v>
       </c>
     </row>
   </sheetData>
@@ -10137,28 +10137,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1667.970276181439</v>
+        <v>1756.84889274829</v>
       </c>
       <c r="AB2" t="n">
-        <v>2282.190517526614</v>
+        <v>2403.79816176121</v>
       </c>
       <c r="AC2" t="n">
-        <v>2064.381457608382</v>
+        <v>2174.383038954629</v>
       </c>
       <c r="AD2" t="n">
-        <v>1667970.276181439</v>
+        <v>1756848.89274829</v>
       </c>
       <c r="AE2" t="n">
-        <v>2282190.517526614</v>
+        <v>2403798.16176121</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.02975919714007e-06</v>
+        <v>2.064149586917493e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.09212239583333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2064381.457608382</v>
+        <v>2174383.038954629</v>
       </c>
     </row>
     <row r="3">
@@ -10243,28 +10243,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1029.001302634599</v>
+        <v>1095.638952223232</v>
       </c>
       <c r="AB3" t="n">
-        <v>1407.924978598218</v>
+        <v>1499.101550611003</v>
       </c>
       <c r="AC3" t="n">
-        <v>1273.554594675922</v>
+        <v>1356.029402622929</v>
       </c>
       <c r="AD3" t="n">
-        <v>1029001.302634599</v>
+        <v>1095638.952223232</v>
       </c>
       <c r="AE3" t="n">
-        <v>1407924.978598218</v>
+        <v>1499101.550611003</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.336324843035734e-06</v>
+        <v>2.678659613238292e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.40071614583333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1273554.594675922</v>
+        <v>1356029.402622929</v>
       </c>
     </row>
     <row r="4">
@@ -10349,28 +10349,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>853.1635691812862</v>
+        <v>919.8864701159406</v>
       </c>
       <c r="AB4" t="n">
-        <v>1167.336034274087</v>
+        <v>1258.629250939521</v>
       </c>
       <c r="AC4" t="n">
-        <v>1055.927121529382</v>
+        <v>1138.507441727101</v>
       </c>
       <c r="AD4" t="n">
-        <v>853163.5691812863</v>
+        <v>919886.4701159406</v>
       </c>
       <c r="AE4" t="n">
-        <v>1167336.034274087</v>
+        <v>1258629.250939521</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.440278188920647e-06</v>
+        <v>2.887033820104296e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.50553385416667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1055927.121529381</v>
+        <v>1138507.441727101</v>
       </c>
     </row>
     <row r="5">
@@ -10455,28 +10455,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>849.8221239610848</v>
+        <v>916.3744326951468</v>
       </c>
       <c r="AB5" t="n">
-        <v>1162.764121509648</v>
+        <v>1253.823926400235</v>
       </c>
       <c r="AC5" t="n">
-        <v>1051.791545702461</v>
+        <v>1134.160730617529</v>
       </c>
       <c r="AD5" t="n">
-        <v>849822.1239610848</v>
+        <v>916374.4326951468</v>
       </c>
       <c r="AE5" t="n">
-        <v>1162764.121509648</v>
+        <v>1253823.926400235</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.444452613192226e-06</v>
+        <v>2.895401442515174e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.47298177083333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1051791.545702461</v>
+        <v>1134160.730617529</v>
       </c>
     </row>
   </sheetData>
@@ -10752,28 +10752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1173.867210688834</v>
+        <v>1248.298702390917</v>
       </c>
       <c r="AB2" t="n">
-        <v>1606.136905030829</v>
+        <v>1707.977355663283</v>
       </c>
       <c r="AC2" t="n">
-        <v>1452.84945304199</v>
+        <v>1544.970394000053</v>
       </c>
       <c r="AD2" t="n">
-        <v>1173867.210688834</v>
+        <v>1248298.702390917</v>
       </c>
       <c r="AE2" t="n">
-        <v>1606136.905030829</v>
+        <v>1707977.355663283</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.21117910734458e-06</v>
+        <v>2.533862437183271e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.25130208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1452849.45304199</v>
+        <v>1544970.394000053</v>
       </c>
     </row>
     <row r="3">
@@ -10858,28 +10858,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>780.8536420808251</v>
+        <v>844.7251361220574</v>
       </c>
       <c r="AB3" t="n">
-        <v>1068.398401926398</v>
+        <v>1155.790197885058</v>
       </c>
       <c r="AC3" t="n">
-        <v>966.4319579531167</v>
+        <v>1045.483203560638</v>
       </c>
       <c r="AD3" t="n">
-        <v>780853.6420808252</v>
+        <v>844725.1361220574</v>
       </c>
       <c r="AE3" t="n">
-        <v>1068398.401926398</v>
+        <v>1155790.197885058</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.464126758046579e-06</v>
+        <v>3.063044741271021e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.79036458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>966431.9579531167</v>
+        <v>1045483.203560638</v>
       </c>
     </row>
     <row r="4">
@@ -10964,28 +10964,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>782.9937480056537</v>
+        <v>846.8652420468859</v>
       </c>
       <c r="AB4" t="n">
-        <v>1071.326589267558</v>
+        <v>1158.718385226218</v>
       </c>
       <c r="AC4" t="n">
-        <v>969.0806832041734</v>
+        <v>1048.131928811695</v>
       </c>
       <c r="AD4" t="n">
-        <v>782993.7480056537</v>
+        <v>846865.2420468859</v>
       </c>
       <c r="AE4" t="n">
-        <v>1071326.589267558</v>
+        <v>1158718.385226218</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.46614185463498e-06</v>
+        <v>3.067260449353901e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.77408854166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>969080.6832041733</v>
+        <v>1048131.928811695</v>
       </c>
     </row>
   </sheetData>
@@ -19362,28 +19362,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>875.0481966469364</v>
+        <v>936.6405973728513</v>
       </c>
       <c r="AB2" t="n">
-        <v>1197.279547054213</v>
+        <v>1281.552986992355</v>
       </c>
       <c r="AC2" t="n">
-        <v>1083.012867475756</v>
+        <v>1159.243368584718</v>
       </c>
       <c r="AD2" t="n">
-        <v>875048.1966469364</v>
+        <v>936640.5973728513</v>
       </c>
       <c r="AE2" t="n">
-        <v>1197279.547054213</v>
+        <v>1281552.986992355</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.365363641670717e-06</v>
+        <v>2.968103630398612e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.07779947916667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1083012.867475756</v>
+        <v>1159243.368584718</v>
       </c>
     </row>
     <row r="3">
@@ -19468,28 +19468,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>744.7837948769786</v>
+        <v>806.2908547483221</v>
       </c>
       <c r="AB3" t="n">
-        <v>1019.046045692744</v>
+        <v>1103.202718508688</v>
       </c>
       <c r="AC3" t="n">
-        <v>921.7897213319357</v>
+        <v>997.9145994089582</v>
       </c>
       <c r="AD3" t="n">
-        <v>744783.7948769786</v>
+        <v>806290.854748322</v>
       </c>
       <c r="AE3" t="n">
-        <v>1019046.045692744</v>
+        <v>1103202.718508688</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.470138432976103e-06</v>
+        <v>3.195868915013371e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.14680989583333</v>
       </c>
       <c r="AH3" t="n">
-        <v>921789.7213319356</v>
+        <v>997914.5994089582</v>
       </c>
     </row>
   </sheetData>
@@ -19765,28 +19765,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>681.3578521973035</v>
+        <v>747.9444935845873</v>
       </c>
       <c r="AB2" t="n">
-        <v>932.2638727633051</v>
+        <v>1023.37065310468</v>
       </c>
       <c r="AC2" t="n">
-        <v>843.2899171873378</v>
+        <v>925.7015942821012</v>
       </c>
       <c r="AD2" t="n">
-        <v>681357.8521973034</v>
+        <v>747944.4935845874</v>
       </c>
       <c r="AE2" t="n">
-        <v>932263.8727633051</v>
+        <v>1023370.65310468</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.397154226557098e-06</v>
+        <v>3.323169000066273e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.71744791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>843289.9171873378</v>
+        <v>925701.5942821011</v>
       </c>
     </row>
   </sheetData>
@@ -20062,28 +20062,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2258.564440176836</v>
+        <v>2362.188495541198</v>
       </c>
       <c r="AB2" t="n">
-        <v>3090.267507880928</v>
+        <v>3232.050512001133</v>
       </c>
       <c r="AC2" t="n">
-        <v>2795.336714146343</v>
+        <v>2923.588147347006</v>
       </c>
       <c r="AD2" t="n">
-        <v>2258564.440176836</v>
+        <v>2362188.495541198</v>
       </c>
       <c r="AE2" t="n">
-        <v>3090267.507880928</v>
+        <v>3232050.512001134</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.826460375882924e-07</v>
+        <v>1.712843654436725e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.15755208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2795336.714146343</v>
+        <v>2923588.147347006</v>
       </c>
     </row>
     <row r="3">
@@ -20168,28 +20168,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1293.591512490707</v>
+        <v>1362.731139806179</v>
       </c>
       <c r="AB3" t="n">
-        <v>1769.948976619572</v>
+        <v>1864.548864937685</v>
       </c>
       <c r="AC3" t="n">
-        <v>1601.02753042999</v>
+        <v>1686.598938178799</v>
       </c>
       <c r="AD3" t="n">
-        <v>1293591.512490707</v>
+        <v>1362731.139806179</v>
       </c>
       <c r="AE3" t="n">
-        <v>1769948.976619572</v>
+        <v>1864548.864937684</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.217269627427076e-06</v>
+        <v>2.3622068964066e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.16731770833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1601027.53042999</v>
+        <v>1686598.938178799</v>
       </c>
     </row>
     <row r="4">
@@ -20274,28 +20274,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1055.468286070655</v>
+        <v>1135.960398469586</v>
       </c>
       <c r="AB4" t="n">
-        <v>1444.138272976331</v>
+        <v>1554.271132221927</v>
       </c>
       <c r="AC4" t="n">
-        <v>1306.311743064265</v>
+        <v>1405.933676795901</v>
       </c>
       <c r="AD4" t="n">
-        <v>1055468.286070655</v>
+        <v>1135960.398469586</v>
       </c>
       <c r="AE4" t="n">
-        <v>1444138.272976331</v>
+        <v>1554271.132221927</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.340857798482895e-06</v>
+        <v>2.602039406316016e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.953125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1306311.743064265</v>
+        <v>1405933.676795901</v>
       </c>
     </row>
     <row r="5">
@@ -20380,28 +20380,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>934.2542295662913</v>
+        <v>1003.22317517262</v>
       </c>
       <c r="AB5" t="n">
-        <v>1278.287853280302</v>
+        <v>1372.654207354019</v>
       </c>
       <c r="AC5" t="n">
-        <v>1156.289854651499</v>
+        <v>1241.650016336431</v>
       </c>
       <c r="AD5" t="n">
-        <v>934254.2295662913</v>
+        <v>1003223.17517262</v>
       </c>
       <c r="AE5" t="n">
-        <v>1278287.853280302</v>
+        <v>1372654.207354019</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.406738664169224e-06</v>
+        <v>2.729886377733863e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.39322916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1156289.854651499</v>
+        <v>1241650.016336431</v>
       </c>
     </row>
     <row r="6">
@@ -20486,28 +20486,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>916.7052396531861</v>
+        <v>985.6741852595152</v>
       </c>
       <c r="AB6" t="n">
-        <v>1254.276551074397</v>
+        <v>1348.642905148114</v>
       </c>
       <c r="AC6" t="n">
-        <v>1134.570157428052</v>
+        <v>1219.930319112983</v>
       </c>
       <c r="AD6" t="n">
-        <v>916705.2396531862</v>
+        <v>985674.1852595152</v>
       </c>
       <c r="AE6" t="n">
-        <v>1254276.551074397</v>
+        <v>1348642.905148114</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.415601560898327e-06</v>
+        <v>2.747085521870794e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.3232421875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1134570.157428052</v>
+        <v>1219930.319112983</v>
       </c>
     </row>
   </sheetData>
@@ -20783,28 +20783,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3300.061779262707</v>
+        <v>3431.746324807484</v>
       </c>
       <c r="AB2" t="n">
-        <v>4515.290114838078</v>
+        <v>4695.466719564587</v>
       </c>
       <c r="AC2" t="n">
-        <v>4084.357163527239</v>
+        <v>4247.337965978098</v>
       </c>
       <c r="AD2" t="n">
-        <v>3300061.779262707</v>
+        <v>3431746.324807484</v>
       </c>
       <c r="AE2" t="n">
-        <v>4515290.114838078</v>
+        <v>4695466.719564587</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.19210831995068e-07</v>
+        <v>1.349521616343865e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.47623697916667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4084357.163527239</v>
+        <v>4247337.965978097</v>
       </c>
     </row>
     <row r="3">
@@ -20889,28 +20889,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1657.783563335998</v>
+        <v>1741.606126918849</v>
       </c>
       <c r="AB3" t="n">
-        <v>2268.25260760543</v>
+        <v>2382.94233709</v>
       </c>
       <c r="AC3" t="n">
-        <v>2051.773762248096</v>
+        <v>2155.517664918706</v>
       </c>
       <c r="AD3" t="n">
-        <v>1657783.563335998</v>
+        <v>1741606.126918849</v>
       </c>
       <c r="AE3" t="n">
-        <v>2268252.60760543</v>
+        <v>2382942.33709</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.084747198909569e-06</v>
+        <v>2.035411214728423e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.23828125</v>
       </c>
       <c r="AH3" t="n">
-        <v>2051773.762248096</v>
+        <v>2155517.664918706</v>
       </c>
     </row>
     <row r="4">
@@ -20995,28 +20995,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1338.514192451</v>
+        <v>1422.3366665253</v>
       </c>
       <c r="AB4" t="n">
-        <v>1831.414169190013</v>
+        <v>1946.103776205035</v>
       </c>
       <c r="AC4" t="n">
-        <v>1656.626571288448</v>
+        <v>1760.370363177831</v>
       </c>
       <c r="AD4" t="n">
-        <v>1338514.192451</v>
+        <v>1422336.6665253</v>
       </c>
       <c r="AE4" t="n">
-        <v>1831414.169190013</v>
+        <v>1946103.776205035</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.222629945827214e-06</v>
+        <v>2.294133329591549e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.6318359375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1656626.571288448</v>
+        <v>1760370.363177831</v>
       </c>
     </row>
     <row r="5">
@@ -21101,28 +21101,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1186.356718456993</v>
+        <v>1270.093851676721</v>
       </c>
       <c r="AB5" t="n">
-        <v>1623.22560055742</v>
+        <v>1737.798440450245</v>
       </c>
       <c r="AC5" t="n">
-        <v>1468.307227451659</v>
+        <v>1571.945396309103</v>
       </c>
       <c r="AD5" t="n">
-        <v>1186356.718456993</v>
+        <v>1270093.851676721</v>
       </c>
       <c r="AE5" t="n">
-        <v>1623225.60055742</v>
+        <v>1737798.440450245</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.295699261124246e-06</v>
+        <v>2.4312400250111e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.92057291666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1468307.227451659</v>
+        <v>1571945.396309103</v>
       </c>
     </row>
     <row r="6">
@@ -21207,28 +21207,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1087.28107930943</v>
+        <v>1159.031471333584</v>
       </c>
       <c r="AB6" t="n">
-        <v>1487.665940167008</v>
+        <v>1585.83799193835</v>
       </c>
       <c r="AC6" t="n">
-        <v>1345.685190789729</v>
+        <v>1434.487839725354</v>
       </c>
       <c r="AD6" t="n">
-        <v>1087281.07930943</v>
+        <v>1159031.471333585</v>
       </c>
       <c r="AE6" t="n">
-        <v>1487665.940167008</v>
+        <v>1585837.99193835</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.343811134962681e-06</v>
+        <v>2.521516771215921e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.494140625</v>
       </c>
       <c r="AH6" t="n">
-        <v>1345685.190789729</v>
+        <v>1434487.839725354</v>
       </c>
     </row>
     <row r="7">
@@ -21313,28 +21313,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1010.311703798388</v>
+        <v>1082.062095822543</v>
       </c>
       <c r="AB7" t="n">
-        <v>1382.353044943606</v>
+        <v>1480.525096714947</v>
       </c>
       <c r="AC7" t="n">
-        <v>1250.423210478872</v>
+        <v>1339.225859414496</v>
       </c>
       <c r="AD7" t="n">
-        <v>1010311.703798388</v>
+        <v>1082062.095822543</v>
       </c>
       <c r="AE7" t="n">
-        <v>1382353.044943606</v>
+        <v>1480525.096714948</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.376265298380323e-06</v>
+        <v>2.58241351125941e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.22233072916667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1250423.210478872</v>
+        <v>1339225.859414496</v>
       </c>
     </row>
     <row r="8">
@@ -21419,28 +21419,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1005.83128005428</v>
+        <v>1065.765523083453</v>
       </c>
       <c r="AB8" t="n">
-        <v>1376.222731514572</v>
+        <v>1458.227406939278</v>
       </c>
       <c r="AC8" t="n">
-        <v>1244.877965559556</v>
+        <v>1319.056229856012</v>
       </c>
       <c r="AD8" t="n">
-        <v>1005831.28005428</v>
+        <v>1065765.523083453</v>
       </c>
       <c r="AE8" t="n">
-        <v>1376222.731514572</v>
+        <v>1458227.406939278</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.37797341224441e-06</v>
+        <v>2.585618602840646e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.20930989583333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1244877.965559556</v>
+        <v>1319056.229856012</v>
       </c>
     </row>
   </sheetData>
@@ -21716,28 +21716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>681.6740360053311</v>
+        <v>754.784987510606</v>
       </c>
       <c r="AB2" t="n">
-        <v>932.6964893984937</v>
+        <v>1032.730118675552</v>
       </c>
       <c r="AC2" t="n">
-        <v>843.6812454980452</v>
+        <v>934.1678055949817</v>
       </c>
       <c r="AD2" t="n">
-        <v>681674.0360053311</v>
+        <v>754784.9875106061</v>
       </c>
       <c r="AE2" t="n">
-        <v>932696.4893984937</v>
+        <v>1032730.118675552</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.283241748154343e-06</v>
+        <v>3.20929022751873e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.46549479166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>843681.2454980452</v>
+        <v>934167.8055949816</v>
       </c>
     </row>
   </sheetData>
@@ -22013,28 +22013,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1323.967854201364</v>
+        <v>1410.394089141536</v>
       </c>
       <c r="AB2" t="n">
-        <v>1811.51122745771</v>
+        <v>1929.76341495924</v>
       </c>
       <c r="AC2" t="n">
-        <v>1638.623138381121</v>
+        <v>1745.589503075493</v>
       </c>
       <c r="AD2" t="n">
-        <v>1323967.854201364</v>
+        <v>1410394.089141536</v>
       </c>
       <c r="AE2" t="n">
-        <v>1811511.22745771</v>
+        <v>1929763.41495924</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.14544972894839e-06</v>
+        <v>2.358805678930502e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.85026041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1638623.138381121</v>
+        <v>1745589.503075493</v>
       </c>
     </row>
     <row r="3">
@@ -22119,28 +22119,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>847.977465840039</v>
+        <v>923.5044129512963</v>
       </c>
       <c r="AB3" t="n">
-        <v>1160.240178887861</v>
+        <v>1263.579479939228</v>
       </c>
       <c r="AC3" t="n">
-        <v>1049.508484622121</v>
+        <v>1142.985227818765</v>
       </c>
       <c r="AD3" t="n">
-        <v>847977.4658400391</v>
+        <v>923504.4129512963</v>
       </c>
       <c r="AE3" t="n">
-        <v>1160240.178887861</v>
+        <v>1263579.479939228</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.428885829761166e-06</v>
+        <v>2.942480952768049e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.904296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1049508.484622121</v>
+        <v>1142985.227818765</v>
       </c>
     </row>
     <row r="4">
@@ -22225,28 +22225,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>804.7227878813414</v>
+        <v>869.606469727399</v>
       </c>
       <c r="AB4" t="n">
-        <v>1101.057220243057</v>
+        <v>1189.833936210854</v>
       </c>
       <c r="AC4" t="n">
-        <v>995.9738644865737</v>
+        <v>1076.277855281307</v>
       </c>
       <c r="AD4" t="n">
-        <v>804722.7878813414</v>
+        <v>869606.4697273991</v>
       </c>
       <c r="AE4" t="n">
-        <v>1101057.220243057</v>
+        <v>1189833.936210854</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.459298774206785e-06</v>
+        <v>3.005109826177609e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.65690104166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>995973.8644865737</v>
+        <v>1076277.855281307</v>
       </c>
     </row>
   </sheetData>
@@ -22522,28 +22522,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1844.380373374994</v>
+        <v>1945.646798479385</v>
       </c>
       <c r="AB2" t="n">
-        <v>2523.562595171053</v>
+        <v>2662.11978555825</v>
       </c>
       <c r="AC2" t="n">
-        <v>2282.717322930273</v>
+        <v>2408.050809533156</v>
       </c>
       <c r="AD2" t="n">
-        <v>1844380.373374994</v>
+        <v>1945646.798479385</v>
       </c>
       <c r="AE2" t="n">
-        <v>2523562.595171052</v>
+        <v>2662119.78555825</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.776481818739548e-07</v>
+        <v>1.936901044842047e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.75130208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2282717.322930274</v>
+        <v>2408050.809533156</v>
       </c>
     </row>
     <row r="3">
@@ -22628,28 +22628,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1115.095650260893</v>
+        <v>1193.839460707736</v>
       </c>
       <c r="AB3" t="n">
-        <v>1525.723063235067</v>
+        <v>1633.463818620177</v>
       </c>
       <c r="AC3" t="n">
-        <v>1380.110195445679</v>
+        <v>1477.568324351935</v>
       </c>
       <c r="AD3" t="n">
-        <v>1115095.650260893</v>
+        <v>1193839.460707736</v>
       </c>
       <c r="AE3" t="n">
-        <v>1525723.063235067</v>
+        <v>1633463.818620177</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.293099710298702e-06</v>
+        <v>2.561868600994766e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.666015625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1380110.195445679</v>
+        <v>1477568.324351934</v>
       </c>
     </row>
     <row r="4">
@@ -22734,28 +22734,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>915.7098089598359</v>
+        <v>983.2776529324772</v>
       </c>
       <c r="AB4" t="n">
-        <v>1252.914558884453</v>
+        <v>1345.363863890717</v>
       </c>
       <c r="AC4" t="n">
-        <v>1133.338151861148</v>
+        <v>1216.964224951028</v>
       </c>
       <c r="AD4" t="n">
-        <v>915709.8089598359</v>
+        <v>983277.6529324772</v>
       </c>
       <c r="AE4" t="n">
-        <v>1252914.558884453</v>
+        <v>1345363.863890717</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.409620561946504e-06</v>
+        <v>2.792717860970795e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.61783854166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1133338.151861148</v>
+        <v>1216964.224951028</v>
       </c>
     </row>
     <row r="5">
@@ -22840,28 +22840,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>870.4117649950015</v>
+        <v>937.8090167670506</v>
       </c>
       <c r="AB5" t="n">
-        <v>1190.935776723107</v>
+        <v>1283.151669954524</v>
       </c>
       <c r="AC5" t="n">
-        <v>1077.274537681514</v>
+        <v>1160.689475488743</v>
       </c>
       <c r="AD5" t="n">
-        <v>870411.7649950015</v>
+        <v>937809.0167670506</v>
       </c>
       <c r="AE5" t="n">
-        <v>1190935.776723107</v>
+        <v>1283151.669954524</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.43517867621122e-06</v>
+        <v>2.84335319087918e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.4111328125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1077274.537681514</v>
+        <v>1160689.475488743</v>
       </c>
     </row>
   </sheetData>
